--- a/data/processed_parser/extracted_results_mutation.xlsx
+++ b/data/processed_parser/extracted_results_mutation.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gène </t>
+          <t>Gène</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exon </t>
+          <t>Exon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutation </t>
+          <t>Mutation</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coverage </t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
